--- a/data/CS1/case18_1/case18_1_2020.xlsx
+++ b/data/CS1/case18_1/case18_1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E2D5D6-0AD7-4990-B208-E864885F398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C726E-6294-4BBA-86F6-2415E097CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15019,8 +15019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15036,16 +15036,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -25068,7 +25068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6014E807-FBD9-4F44-A100-DDACBF5DF304}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>

--- a/data/CS1/case18_1/case18_1_2020.xlsx
+++ b/data/CS1/case18_1/case18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C726E-6294-4BBA-86F6-2415E097CD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2962AA-926B-44B8-BE8C-49D1E9A6A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15020,7 +15020,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,11 +15033,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS1/case18_1/case18_1_2020.xlsx
+++ b/data/CS1/case18_1/case18_1_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2962AA-926B-44B8-BE8C-49D1E9A6A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B9F9F0-3EE9-4231-BD91-5948B11E4F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15020,7 +15020,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,10 +15033,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS1/case18_1/case18_1_2020.xlsx
+++ b/data/CS1/case18_1/case18_1_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ED0292-3FB1-483A-A4E5-5CB5A8C7294A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C0B0D7-90D7-4D1A-8C23-4A3038E7F8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15020,7 +15020,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15036,16 +15036,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -15198,99 +15198,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>5.6318903394011917E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>4.1008325887950878E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>3.4493868107969644E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>4.601985457604163E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>3.8459028754463942E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>3.2578063368000454E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>2.6690777806124864E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>9.2348356616746771E-2</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>9.8508617086819433E-2</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>8.2834634570829777E-2</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>9.4578195818135397E-2</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>8.877870271564936E-2</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>8.8269137192884373E-2</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>7.9625271654383531E-2</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>4.7249990616596162E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>7.6220760054570735E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>9.0518821695158874E-2</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>8.5295966754378033E-2</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>5.9029019216094367E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>6.0026445269231891E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>5.5909389158072233E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>3.5381670776867206E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>2.7665283023855722E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>2.8384238023740068E-2</v>
       </c>
     </row>
@@ -15299,99 +15299,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>-0.23130114000581567</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>-0.22671582802119736</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>-0.23297159552169908</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>-0.24851691956289326</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>-0.24613037965242035</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>-0.22589015796420425</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>-0.14042366108410451</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>-2.7533325388100306E-2</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-2.9588050477632813E-2</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-1.8839251000540853E-2</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-1.6595450984758488E-2</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-7.5575943816212521E-2</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-0.10930425296973352</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-0.14455740525444744</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-0.14062961309958133</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>-0.14734140071755722</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>-0.11584527145131844</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>3.7328474850364772E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>-5.2082705011334118E-3</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>-6.1479994227544993E-2</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>-0.11626388411454251</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>-0.15142125535402406</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>-0.16275074912197071</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>-0.18634182329225232</v>
       </c>
     </row>
@@ -15400,99 +15400,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>-0.82288859939973136</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>-0.85307961100793317</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>-0.86872696638887581</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>-0.85710916365318779</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>-0.89283518888127389</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>-0.71631813380424125</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>-2.6673553559025474E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>0.38438344453060797</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>0.48029792606392457</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>0.3412786037220365</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>0.19952326107147711</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>0.3996813108835417</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>0.24460670826981815</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>7.4961626057414216E-2</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>-0.30249705840543917</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>-0.29669194271443083</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>-0.24929060112403051</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>-0.12206318921411476</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>-0.30651491426464755</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>-0.16779488132344211</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>-0.23977641541052083</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>-0.38599995929058717</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>-0.60982669003292589</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>-0.6883955997718656</v>
       </c>
     </row>
@@ -15501,99 +15501,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B5*Main!$B$5)</f>
         <v>-2.164665931321462</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C5*Main!$B$5)</f>
         <v>-2.1644901581645066</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D5*Main!$B$5)</f>
         <v>-2.2084412405664229</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E5*Main!$B$5)</f>
         <v>-2.2498331180110744</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F5*Main!$B$5)</f>
         <v>-2.2155391429993685</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G5*Main!$B$5)</f>
         <v>-2.0458118733604143</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H5*Main!$B$5)</f>
         <v>-1.7398118715387447</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I5*Main!$B$5)</f>
         <v>-1.6365782472948529</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J5*Main!$B$5)</f>
         <v>-1.6349619568998188</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K5*Main!$B$5)</f>
         <v>-1.8478197542738948</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L5*Main!$B$5)</f>
         <v>-1.9904144474525465</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M5*Main!$B$5)</f>
         <v>-2.0248804746822864</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N5*Main!$B$5)</f>
         <v>-2.0272759657853432</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O5*Main!$B$5)</f>
         <v>-2.0645535759313578</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P5*Main!$B$5)</f>
         <v>-2.1464609456618318</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q5*Main!$B$5)</f>
         <v>-2.082430279162987</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R5*Main!$B$5)</f>
         <v>-1.7105430562366648</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S5*Main!$B$5)</f>
         <v>-1.0507051985177944</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T5*Main!$B$5)</f>
         <v>-1.3418287493035084</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U5*Main!$B$5)</f>
         <v>-1.6602043299508793</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V5*Main!$B$5)</f>
         <v>-1.7346846280301926</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W5*Main!$B$5)</f>
         <v>-1.8537645355725263</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X5*Main!$B$5)</f>
         <v>-1.9791863595010053</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y5*Main!$B$5)</f>
         <v>-1.9493883929730007</v>
       </c>
     </row>
@@ -15602,99 +15602,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B6*Main!$B$5)</f>
         <v>-0.43725228510679259</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C6*Main!$B$5)</f>
         <v>-0.46390969771310397</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D6*Main!$B$5)</f>
         <v>-0.49827737161198293</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E6*Main!$B$5)</f>
         <v>-0.50005438134597635</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F6*Main!$B$5)</f>
         <v>-0.484272381521208</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G6*Main!$B$5)</f>
         <v>-0.40820336848866423</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H6*Main!$B$5)</f>
         <v>-0.32052121968616265</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I6*Main!$B$5)</f>
         <v>-0.25175751213047104</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J6*Main!$B$5)</f>
         <v>-0.25479069291768064</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K6*Main!$B$5)</f>
         <v>-0.21342641814214988</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L6*Main!$B$5)</f>
         <v>-0.20292938072896355</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M6*Main!$B$5)</f>
         <v>-0.20676499958043135</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N6*Main!$B$5)</f>
         <v>-0.24640595676468119</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O6*Main!$B$5)</f>
         <v>-0.26516254676956791</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P6*Main!$B$5)</f>
         <v>-0.26058687694050514</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q6*Main!$B$5)</f>
         <v>-0.31985700389705263</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R6*Main!$B$5)</f>
         <v>-0.28618126416044304</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S6*Main!$B$5)</f>
         <v>-0.1378456965210352</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T6*Main!$B$5)</f>
         <v>-0.16989460434673159</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U6*Main!$B$5)</f>
         <v>-0.20709819202918225</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V6*Main!$B$5)</f>
         <v>-0.22809824200721657</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W6*Main!$B$5)</f>
         <v>-0.29319597760120242</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X6*Main!$B$5)</f>
         <v>-0.32104093756324381</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y6*Main!$B$5)</f>
         <v>-0.3291365825637127</v>
       </c>
     </row>
@@ -15703,99 +15703,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B7*Main!$B$5)</f>
         <v>3.4997954017383481E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C7*Main!$B$5)</f>
         <v>2.7647803936042169E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D7*Main!$B$5)</f>
         <v>2.0963163372162207E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E7*Main!$B$5)</f>
         <v>3.0617984407262384E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F7*Main!$B$5)</f>
         <v>2.4890936097677802E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G7*Main!$B$5)</f>
         <v>3.6222621412122992E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H7*Main!$B$5)</f>
         <v>4.7344148447388608E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I7*Main!$B$5)</f>
         <v>9.5039596422753628E-2</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J7*Main!$B$5)</f>
         <v>0.10837031682830907</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K7*Main!$B$5)</f>
         <v>0.11054557397717606</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L7*Main!$B$5)</f>
         <v>0.10492573224987684</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M7*Main!$B$5)</f>
         <v>0.1107950420355172</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N7*Main!$B$5)</f>
         <v>0.10997178716977839</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O7*Main!$B$5)</f>
         <v>0.11313327192873149</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P7*Main!$B$5)</f>
         <v>9.2352922596295989E-2</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q7*Main!$B$5)</f>
         <v>8.9622761937238157E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R7*Main!$B$5)</f>
         <v>7.6351489248759688E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S7*Main!$B$5)</f>
         <v>8.4369659446334927E-2</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T7*Main!$B$5)</f>
         <v>7.2232459703499979E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U7*Main!$B$5)</f>
         <v>7.3884069004375136E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V7*Main!$B$5)</f>
         <v>6.3729454426951465E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W7*Main!$B$5)</f>
         <v>6.5092594842574944E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X7*Main!$B$5)</f>
         <v>4.123449812751958E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y7*Main!$B$5)</f>
         <v>4.3192695933410061E-2</v>
       </c>
     </row>
@@ -15804,99 +15804,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B8*Main!$B$5)</f>
         <v>-0.527725019562725</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C8*Main!$B$5)</f>
         <v>-0.51668247169434189</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D8*Main!$B$5)</f>
         <v>-0.54379195532168589</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E8*Main!$B$5)</f>
         <v>-0.54255918306407636</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F8*Main!$B$5)</f>
         <v>-0.59228607383831244</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G8*Main!$B$5)</f>
         <v>-0.5303084829701058</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H8*Main!$B$5)</f>
         <v>-0.44160259445976691</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I8*Main!$B$5)</f>
         <v>-0.23633647316080894</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J8*Main!$B$5)</f>
         <v>-0.11250678643507638</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K8*Main!$B$5)</f>
         <v>-0.10549680843902121</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L8*Main!$B$5)</f>
         <v>-8.0184280565391383E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M8*Main!$B$5)</f>
         <v>-2.7219244967304657E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N8*Main!$B$5)</f>
         <v>-0.10940833091871763</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O8*Main!$B$5)</f>
         <v>-0.11647646142664403</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P8*Main!$B$5)</f>
         <v>-0.21019214846780926</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q8*Main!$B$5)</f>
         <v>-0.3003725662408615</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R8*Main!$B$5)</f>
         <v>-0.27109668115551772</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S8*Main!$B$5)</f>
         <v>-0.30238399867997146</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T8*Main!$B$5)</f>
         <v>-0.34344581046244027</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U8*Main!$B$5)</f>
         <v>-0.32647331783121125</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V8*Main!$B$5)</f>
         <v>-0.3642987699687274</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W8*Main!$B$5)</f>
         <v>-0.44698755836718995</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X8*Main!$B$5)</f>
         <v>-0.50431331672424728</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y8*Main!$B$5)</f>
         <v>-0.49671338739296461</v>
       </c>
     </row>
@@ -15905,99 +15905,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B9*Main!$B$5)</f>
         <v>-0.30643399412683925</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C9*Main!$B$5)</f>
         <v>-0.31601066306758341</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D9*Main!$B$5)</f>
         <v>-0.3085871889192297</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E9*Main!$B$5)</f>
         <v>-0.31122518381200936</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F9*Main!$B$5)</f>
         <v>-0.30782706145395949</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G9*Main!$B$5)</f>
         <v>-0.28380474985881649</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H9*Main!$B$5)</f>
         <v>-0.22580739559053337</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I9*Main!$B$5)</f>
         <v>-0.17435606757856897</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J9*Main!$B$5)</f>
         <v>-0.1626284582218839</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K9*Main!$B$5)</f>
         <v>-0.18573366258502072</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L9*Main!$B$5)</f>
         <v>-0.17363119981803415</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M9*Main!$B$5)</f>
         <v>-0.15987501591992931</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N9*Main!$B$5)</f>
         <v>-0.17116552586127856</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O9*Main!$B$5)</f>
         <v>-0.18348036901771864</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P9*Main!$B$5)</f>
         <v>-0.22070162000517049</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q9*Main!$B$5)</f>
         <v>-0.24723279684410215</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R9*Main!$B$5)</f>
         <v>-0.24657784664092761</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S9*Main!$B$5)</f>
         <v>-0.24558989043461676</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T9*Main!$B$5)</f>
         <v>-0.2563027095333234</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U9*Main!$B$5)</f>
         <v>-0.27031186337971508</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V9*Main!$B$5)</f>
         <v>-0.26954914225026161</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W9*Main!$B$5)</f>
         <v>-0.27467915702502627</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X9*Main!$B$5)</f>
         <v>-0.28667008790060394</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y9*Main!$B$5)</f>
         <v>-0.29806502897516324</v>
       </c>
     </row>
@@ -16006,99 +16006,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B10*Main!$B$5)</f>
         <v>-0.35590456615738664</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C10*Main!$B$5)</f>
         <v>-0.39320176785141314</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D10*Main!$B$5)</f>
         <v>-0.40996798689835717</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E10*Main!$B$5)</f>
         <v>-0.38942038156408182</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F10*Main!$B$5)</f>
         <v>-0.39882854865676359</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G10*Main!$B$5)</f>
         <v>-0.36408446759484608</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H10*Main!$B$5)</f>
         <v>-0.22195789183604325</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I10*Main!$B$5)</f>
         <v>-2.3500692081899845E-2</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J10*Main!$B$5)</f>
         <v>1.3036076268888612E-2</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K10*Main!$B$5)</f>
         <v>-7.3149758944550608E-3</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L10*Main!$B$5)</f>
         <v>-1.1103393418370687E-2</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M10*Main!$B$5)</f>
         <v>-5.3798984743526007E-3</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N10*Main!$B$5)</f>
         <v>-4.7928173692871313E-2</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O10*Main!$B$5)</f>
         <v>-8.6011635215210255E-2</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P10*Main!$B$5)</f>
         <v>-0.16871865983757012</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q10*Main!$B$5)</f>
         <v>-0.18674267274781212</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R10*Main!$B$5)</f>
         <v>-0.14676005633018196</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S10*Main!$B$5)</f>
         <v>-4.6271053151158509E-2</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T10*Main!$B$5)</f>
         <v>-0.11872890372582795</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U10*Main!$B$5)</f>
         <v>-0.13972850453780605</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V10*Main!$B$5)</f>
         <v>-0.18292018222253872</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W10*Main!$B$5)</f>
         <v>-0.24661693633998322</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X10*Main!$B$5)</f>
         <v>-0.30619766482226896</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y10*Main!$B$5)</f>
         <v>-0.32567065591687289</v>
       </c>
     </row>
@@ -16107,99 +16107,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B11*Main!$B$5)</f>
         <v>-0.18013063784996319</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C11*Main!$B$5)</f>
         <v>-0.19100085130215502</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D11*Main!$B$5)</f>
         <v>-0.18565807469807349</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E11*Main!$B$5)</f>
         <v>-0.18326619560493618</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F11*Main!$B$5)</f>
         <v>-0.18648596531781395</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G11*Main!$B$5)</f>
         <v>-0.17782717711159352</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H11*Main!$B$5)</f>
         <v>-0.12937525027988547</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I11*Main!$B$5)</f>
         <v>-0.10452609349678575</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J11*Main!$B$5)</f>
         <v>-6.9438047925429972E-2</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K11*Main!$B$5)</f>
         <v>-3.9305772332866966E-2</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L11*Main!$B$5)</f>
         <v>-5.0284831816434422E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M11*Main!$B$5)</f>
         <v>-3.8820504814705024E-2</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N11*Main!$B$5)</f>
         <v>-4.6291246433870975E-2</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O11*Main!$B$5)</f>
         <v>-6.8304937395560886E-2</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P11*Main!$B$5)</f>
         <v>-8.3695373188224578E-2</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q11*Main!$B$5)</f>
         <v>-8.8069009108580301E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R11*Main!$B$5)</f>
         <v>-8.9663197988491289E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S11*Main!$B$5)</f>
         <v>-5.9910353786546633E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T11*Main!$B$5)</f>
         <v>-7.1862582834443162E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U11*Main!$B$5)</f>
         <v>-9.1817044219339866E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V11*Main!$B$5)</f>
         <v>-0.10476995987220236</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W11*Main!$B$5)</f>
         <v>-0.13874268276745838</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X11*Main!$B$5)</f>
         <v>-0.17001594683576499</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y11*Main!$B$5)</f>
         <v>-0.17304132412198531</v>
       </c>
     </row>
@@ -16208,99 +16208,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B12*Main!$B$5)</f>
         <v>-0.1127766501714816</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C12*Main!$B$5)</f>
         <v>-0.11271246951605415</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D12*Main!$B$5)</f>
         <v>-0.11478398632969071</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E12*Main!$B$5)</f>
         <v>-0.11698541670936125</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F12*Main!$B$5)</f>
         <v>-0.11321038774735244</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G12*Main!$B$5)</f>
         <v>-9.1362820978017803E-2</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H12*Main!$B$5)</f>
         <v>-7.2151626513649203E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I12*Main!$B$5)</f>
         <v>-6.383471878823678E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J12*Main!$B$5)</f>
         <v>-4.4800425117686414E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K12*Main!$B$5)</f>
         <v>-2.8975170366530641E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L12*Main!$B$5)</f>
         <v>-6.8060504740607666E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M12*Main!$B$5)</f>
         <v>-6.2922643408656651E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N12*Main!$B$5)</f>
         <v>-7.0917495946524245E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O12*Main!$B$5)</f>
         <v>-7.077244480341395E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P12*Main!$B$5)</f>
         <v>-7.874171071745012E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q12*Main!$B$5)</f>
         <v>-7.7240033753850038E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R12*Main!$B$5)</f>
         <v>-6.8477057869770402E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S12*Main!$B$5)</f>
         <v>-4.3997680266655417E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T12*Main!$B$5)</f>
         <v>-6.1330890197520284E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U12*Main!$B$5)</f>
         <v>-7.3485747436817003E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V12*Main!$B$5)</f>
         <v>-7.8173922076826177E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W12*Main!$B$5)</f>
         <v>-7.7676838951942953E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X12*Main!$B$5)</f>
         <v>-8.4732106179968292E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y12*Main!$B$5)</f>
         <v>-9.2596224270223668E-2</v>
       </c>
     </row>
@@ -16309,99 +16309,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B13*Main!$B$5)</f>
         <v>-2.9223518521994785E-2</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C13*Main!$B$5)</f>
         <v>4.8051205554318993E-2</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D13*Main!$B$5)</f>
         <v>0.10269014263915967</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E13*Main!$B$5)</f>
         <v>9.1487473149565957E-2</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F13*Main!$B$5)</f>
         <v>7.0436708174778331E-2</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G13*Main!$B$5)</f>
         <v>-7.0254467921161856E-2</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H13*Main!$B$5)</f>
         <v>-2.3194171433372924E-3</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I13*Main!$B$5)</f>
         <v>8.2084484002370603E-2</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J13*Main!$B$5)</f>
         <v>0.18179764046922442</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K13*Main!$B$5)</f>
         <v>0.21875336351129929</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L13*Main!$B$5)</f>
         <v>0.10209207162439876</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M13*Main!$B$5)</f>
         <v>-2.6524764972105948E-4</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N13*Main!$B$5)</f>
         <v>0.33657010745536992</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O13*Main!$B$5)</f>
         <v>0.37780839840904201</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P13*Main!$B$5)</f>
         <v>0.3512917385136457</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q13*Main!$B$5)</f>
         <v>0.4073814223154259</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R13*Main!$B$5)</f>
         <v>0.22156810523761122</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S13*Main!$B$5)</f>
         <v>0.3091316616563734</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T13*Main!$B$5)</f>
         <v>0.33857861109844756</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U13*Main!$B$5)</f>
         <v>0.30182198463927229</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V13*Main!$B$5)</f>
         <v>0.33540586738410844</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W13*Main!$B$5)</f>
         <v>0.42202765829353261</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X13*Main!$B$5)</f>
         <v>0.39884250382364483</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y13*Main!$B$5)</f>
         <v>0.27134675877382353</v>
       </c>
     </row>
@@ -16410,99 +16410,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B14*Main!$B$5)</f>
         <v>2.9371524436478509E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C14*Main!$B$5)</f>
         <v>2.4229807330187828E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D14*Main!$B$5)</f>
         <v>3.3903610910883071E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E14*Main!$B$5)</f>
         <v>4.2058691427898476E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F14*Main!$B$5)</f>
         <v>4.3918749641253911E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G14*Main!$B$5)</f>
         <v>5.3544637438839977E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H14*Main!$B$5)</f>
         <v>0.19384297967657341</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I14*Main!$B$5)</f>
         <v>0.25256625574083691</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J14*Main!$B$5)</f>
         <v>0.26247178110749125</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K14*Main!$B$5)</f>
         <v>0.24550213356190825</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L14*Main!$B$5)</f>
         <v>0.2271612795975638</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M14*Main!$B$5)</f>
         <v>0.26554574602270931</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N14*Main!$B$5)</f>
         <v>0.30013838154595768</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O14*Main!$B$5)</f>
         <v>0.26356864908776384</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P14*Main!$B$5)</f>
         <v>0.25150674478169521</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q14*Main!$B$5)</f>
         <v>0.25615530970290512</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R14*Main!$B$5)</f>
         <v>0.23314960320996547</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S14*Main!$B$5)</f>
         <v>0.23385464032995101</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T14*Main!$B$5)</f>
         <v>0.20221361290456663</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U14*Main!$B$5)</f>
         <v>0.1526539171293404</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V14*Main!$B$5)</f>
         <v>0.17260524594281795</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W14*Main!$B$5)</f>
         <v>0.14933919219289354</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X14*Main!$B$5)</f>
         <v>6.5687750874845616E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y14*Main!$B$5)</f>
         <v>4.5543918952535213E-2</v>
       </c>
     </row>
@@ -16511,99 +16511,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B15*Main!$B$5)</f>
         <v>0.58079708548539621</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C15*Main!$B$5)</f>
         <v>0.58854509962110013</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D15*Main!$B$5)</f>
         <v>0.60777730693511101</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E15*Main!$B$5)</f>
         <v>0.59924812034251285</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F15*Main!$B$5)</f>
         <v>0.60639145869486277</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G15*Main!$B$5)</f>
         <v>0.58398892139996028</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H15*Main!$B$5)</f>
         <v>0.50729986228820478</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I15*Main!$B$5)</f>
         <v>0.40325619313349986</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J15*Main!$B$5)</f>
         <v>0.3361856644844991</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K15*Main!$B$5)</f>
         <v>0.28678045787713341</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L15*Main!$B$5)</f>
         <v>0.37684633216617086</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M15*Main!$B$5)</f>
         <v>0.36438442962906264</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N15*Main!$B$5)</f>
         <v>0.31749392695883999</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O15*Main!$B$5)</f>
         <v>0.27843738113285393</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P15*Main!$B$5)</f>
         <v>0.37882411989070808</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q15*Main!$B$5)</f>
         <v>0.4489846012962318</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R15*Main!$B$5)</f>
         <v>0.43051649741099018</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S15*Main!$B$5)</f>
         <v>0.45245152752508966</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T15*Main!$B$5)</f>
         <v>0.48183272835980845</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U15*Main!$B$5)</f>
         <v>0.52304250307348654</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V15*Main!$B$5)</f>
         <v>0.5051349699745814</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W15*Main!$B$5)</f>
         <v>0.54421275116475099</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X15*Main!$B$5)</f>
         <v>0.56878454099335463</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y15*Main!$B$5)</f>
         <v>0.56303996876572338</v>
       </c>
     </row>
@@ -16612,99 +16612,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B16*Main!$B$5)</f>
         <v>5.6318903394011917E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C16*Main!$B$5)</f>
         <v>4.1414348916544441E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D16*Main!$B$5)</f>
         <v>3.5549802845968717E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E16*Main!$B$5)</f>
         <v>4.4666329441452178E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F16*Main!$B$5)</f>
         <v>3.9624453868235585E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G16*Main!$B$5)</f>
         <v>3.1619885033647502E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H16*Main!$B$5)</f>
         <v>2.6690777806124864E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I16*Main!$B$5)</f>
         <v>9.4195323749081739E-2</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J16*Main!$B$5)</f>
         <v>9.4645534063806908E-2</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K16*Main!$B$5)</f>
         <v>8.4491327262246382E-2</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L16*Main!$B$5)</f>
         <v>9.7473446710527295E-2</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M16*Main!$B$5)</f>
         <v>8.7881948142764024E-2</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N16*Main!$B$5)</f>
         <v>8.9169842674444416E-2</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O16*Main!$B$5)</f>
         <v>7.8820975981106933E-2</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P16*Main!$B$5)</f>
         <v>4.8681808514068781E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q16*Main!$B$5)</f>
         <v>7.4726235347618367E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R16*Main!$B$5)</f>
         <v>9.1415047652536691E-2</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S16*Main!$B$5)</f>
         <v>8.2787261849837493E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T16*Main!$B$5)</f>
         <v>5.9613464950907184E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U16*Main!$B$5)</f>
         <v>6.0026445269231891E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V16*Main!$B$5)</f>
         <v>5.5344647853445242E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W16*Main!$B$5)</f>
         <v>3.5031357204819022E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X16*Main!$B$5)</f>
         <v>2.7665283023855722E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y16*Main!$B$5)</f>
         <v>2.8673873105614967E-2</v>
       </c>
     </row>
@@ -17247,99 +17247,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>5.8042951457093914E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>3.9790256802170153E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>3.5197824599969028E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>4.601985457604163E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>3.807055371654007E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>3.1300492255529846E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>2.5897982425744915E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>9.1424873050579322E-2</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>9.6577075575313184E-2</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>8.3662980916538066E-2</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>9.6508363079729986E-2</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>9.1468966434305396E-2</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>8.9169842674444416E-2</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>8.123386300093674E-2</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>4.8681808514068781E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>7.4726235347618367E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>8.7830143823025439E-2</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>8.4459731786197839E-2</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>5.9029019216094367E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>6.1239100729216372E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>5.7038871767326221E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>3.4330730060722646E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>2.8503624933669525E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>2.8384238023740068E-2</v>
       </c>
     </row>
@@ -17348,99 +17348,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>-0.22223050706441114</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>-0.22444866974098543</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>-0.22831216361126511</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>-0.24364403878715024</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>-0.24371733671465154</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>-0.21703172039698057</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>-0.13761518786242241</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>-2.7263390825471877E-2</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-2.9297971551381509E-2</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-1.9415962765863534E-2</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-1.7272816331075157E-2</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-7.6331703254374647E-2</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-0.1115124196963948</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-0.14169488237812172</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-0.13920911195716132</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>-0.1430078301082173</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>-0.11584527145131844</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>3.8075044347372071E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>-5.3134880870148952E-3</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>-6.3343024355652422E-2</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>-0.11741501168003302</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>-0.14990704280048381</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>-0.16275074912197071</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>-0.192046164821607</v>
       </c>
     </row>
@@ -17449,99 +17449,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>-0.80675352882326601</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>-0.87919429297756369</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>-0.86872696638887581</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>-0.87460118740121207</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>-0.89283518888127389</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>-0.73824623994110572</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>-2.6673553559025474E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>0.38061497938815114</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>0.48990388458520295</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>0.33458686639415341</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>0.20149873890386799</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>0.39576286665919325</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>0.25201903276284293</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>7.6460858578562496E-2</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>-0.29063442866404943</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>-0.29075810386014223</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>-0.24929060112403051</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>-0.1257620737357546</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>-0.29449472154838685</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>-0.16779488132344211</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>-0.23742566623982939</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>-0.38599995929058717</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>-0.60982669003292589</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>-0.68144210886507894</v>
       </c>
     </row>
@@ -17550,99 +17550,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B5*Main!$B$5)</f>
         <v>-2.164665931321462</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C5*Main!$B$5)</f>
         <v>-2.2077799613277964</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D5*Main!$B$5)</f>
         <v>-2.2084412405664229</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E5*Main!$B$5)</f>
         <v>-2.1616043682851496</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F5*Main!$B$5)</f>
         <v>-2.2155391429993685</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G5*Main!$B$5)</f>
         <v>-2.0458118733604143</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H5*Main!$B$5)</f>
         <v>-1.7749595861152849</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I5*Main!$B$5)</f>
         <v>-1.5723987081852511</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J5*Main!$B$5)</f>
         <v>-1.6184471896584065</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K5*Main!$B$5)</f>
         <v>-1.8478197542738948</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L5*Main!$B$5)</f>
         <v>-1.931872846056883</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M5*Main!$B$5)</f>
         <v>-2.0662045660023334</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N5*Main!$B$5)</f>
         <v>-2.0686489446789214</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O5*Main!$B$5)</f>
         <v>-2.0645535759313578</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P5*Main!$B$5)</f>
         <v>-2.1252088570909224</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q5*Main!$B$5)</f>
         <v>-2.082430279162987</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R5*Main!$B$5)</f>
         <v>-1.7105430562366648</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S5*Main!$B$5)</f>
         <v>-1.0611082202852971</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T5*Main!$B$5)</f>
         <v>-1.3552470367965435</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U5*Main!$B$5)</f>
         <v>-1.5950982777959426</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V5*Main!$B$5)</f>
         <v>-1.7171625610803924</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W5*Main!$B$5)</f>
         <v>-1.835226890216801</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X5*Main!$B$5)</f>
         <v>-1.9595904549514902</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y5*Main!$B$5)</f>
         <v>-1.969079184821213</v>
       </c>
     </row>
@@ -17651,99 +17651,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B6*Main!$B$5)</f>
         <v>-0.44171404311808637</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C6*Main!$B$5)</f>
         <v>-0.45922374117054737</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D6*Main!$B$5)</f>
         <v>-0.47873708252916003</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E6*Main!$B$5)</f>
         <v>-0.50005438134597635</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F6*Main!$B$5)</f>
         <v>-0.48916402173859391</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G6*Main!$B$5)</f>
         <v>-0.41644990118540498</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H6*Main!$B$5)</f>
         <v>-0.32052121968616265</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I6*Main!$B$5)</f>
         <v>-0.25430051730350611</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J6*Main!$B$5)</f>
         <v>-0.24979479697811827</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K6*Main!$B$5)</f>
         <v>-0.20714917054973372</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L6*Main!$B$5)</f>
         <v>-0.20500008869558564</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M6*Main!$B$5)</f>
         <v>-0.20676499958043135</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N6*Main!$B$5)</f>
         <v>-0.24640595676468119</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O6*Main!$B$5)</f>
         <v>-0.26253717501937418</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P6*Main!$B$5)</f>
         <v>-0.26058687694050514</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q6*Main!$B$5)</f>
         <v>-0.31035630081100157</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R6*Main!$B$5)</f>
         <v>-0.27495846948748448</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S6*Main!$B$5)</f>
         <v>-0.14206546274106691</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T6*Main!$B$5)</f>
         <v>-0.1632320708429382</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U6*Main!$B$5)</f>
         <v>-0.20502721010889044</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V6*Main!$B$5)</f>
         <v>-0.225861984732636</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W6*Main!$B$5)</f>
         <v>-0.29609890807250144</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X6*Main!$B$5)</f>
         <v>-0.32104093756324381</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y6*Main!$B$5)</f>
         <v>-0.34257072879080303</v>
       </c>
     </row>
@@ -17752,99 +17752,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B7*Main!$B$5)</f>
         <v>3.4997954017383481E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C7*Main!$B$5)</f>
         <v>2.7376747034708424E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D7*Main!$B$5)</f>
         <v>2.0141078534038199E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E7*Main!$B$5)</f>
         <v>3.0005624719117135E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F7*Main!$B$5)</f>
         <v>2.5645206888516524E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G7*Main!$B$5)</f>
         <v>3.5498168983880536E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H7*Main!$B$5)</f>
         <v>4.8310355558559802E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I7*Main!$B$5)</f>
         <v>9.5980582525949196E-2</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J7*Main!$B$5)</f>
         <v>0.10837031682830907</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K7*Main!$B$5)</f>
         <v>0.10942895201781065</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L7*Main!$B$5)</f>
         <v>0.10704544401250063</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M7*Main!$B$5)</f>
         <v>0.1107950420355172</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N7*Main!$B$5)</f>
         <v>0.10997178716977839</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O7*Main!$B$5)</f>
         <v>0.11202412220394002</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P7*Main!$B$5)</f>
         <v>9.515149600830497E-2</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q7*Main!$B$5)</f>
         <v>8.6960699701478614E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R7*Main!$B$5)</f>
         <v>7.5580262084630812E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S7*Main!$B$5)</f>
         <v>8.605705263526163E-2</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T7*Main!$B$5)</f>
         <v>7.1517286835148505E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U7*Main!$B$5)</f>
         <v>7.6122980186325892E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V7*Main!$B$5)</f>
         <v>6.436043912424802E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W7*Main!$B$5)</f>
         <v>6.5092594842574944E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X7*Main!$B$5)</f>
         <v>4.040980816496919E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y7*Main!$B$5)</f>
         <v>4.1498864720335156E-2</v>
       </c>
     </row>
@@ -17853,99 +17853,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B8*Main!$B$5)</f>
         <v>-0.53305557531588388</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C8*Main!$B$5)</f>
         <v>-0.52195474181367196</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D8*Main!$B$5)</f>
         <v>-0.54379195532168589</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E8*Main!$B$5)</f>
         <v>-0.54809550125860773</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F8*Main!$B$5)</f>
         <v>-0.59228607383831244</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G8*Main!$B$5)</f>
         <v>-0.5303084829701058</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H8*Main!$B$5)</f>
         <v>-0.44606322672703724</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I8*Main!$B$5)</f>
         <v>-0.22938540042078517</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J8*Main!$B$5)</f>
         <v>-0.11365481486808736</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K8*Main!$B$5)</f>
         <v>-0.10549680843902121</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L8*Main!$B$5)</f>
         <v>-8.1804165021257882E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M8*Main!$B$5)</f>
         <v>-2.7491437416977706E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N8*Main!$B$5)</f>
         <v>-0.10830319626297302</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O8*Main!$B$5)</f>
         <v>-0.11532322913529112</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P8*Main!$B$5)</f>
         <v>-0.20809022698313118</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q8*Main!$B$5)</f>
         <v>-0.30337629190327015</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R8*Main!$B$5)</f>
         <v>-0.27109668115551772</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S8*Main!$B$5)</f>
         <v>-0.30540783866677118</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T8*Main!$B$5)</f>
         <v>-0.34344581046244027</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U8*Main!$B$5)</f>
         <v>-0.31994385147458704</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V8*Main!$B$5)</f>
         <v>-0.36801610435616344</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W8*Main!$B$5)</f>
         <v>-0.44698755836718995</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X8*Main!$B$5)</f>
         <v>-0.49936906852106838</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y8*Main!$B$5)</f>
         <v>-0.48687747873171777</v>
       </c>
     </row>
@@ -17954,99 +17954,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B9*Main!$B$5)</f>
         <v>-0.30643399412683925</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C9*Main!$B$5)</f>
         <v>-0.3036180880453252</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D9*Main!$B$5)</f>
         <v>-0.30241544514084512</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E9*Main!$B$5)</f>
         <v>-0.30814374634852415</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F9*Main!$B$5)</f>
         <v>-0.29877332435237247</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G9*Main!$B$5)</f>
         <v>-0.28380474985881649</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H9*Main!$B$5)</f>
         <v>-0.22580739559053337</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I9*Main!$B$5)</f>
         <v>-0.17611723997835249</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J9*Main!$B$5)</f>
         <v>-0.16100217363966507</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K9*Main!$B$5)</f>
         <v>-0.18201898933332031</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L9*Main!$B$5)</f>
         <v>-0.17713890082445907</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M9*Main!$B$5)</f>
         <v>-0.16147376607912861</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N9*Main!$B$5)</f>
         <v>-0.16777610950758989</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O9*Main!$B$5)</f>
         <v>-0.17981076163736429</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P9*Main!$B$5)</f>
         <v>-0.21847231071218895</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q9*Main!$B$5)</f>
         <v>-0.24723279684410215</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R9*Main!$B$5)</f>
         <v>-0.24657784664092761</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S9*Main!$B$5)</f>
         <v>-0.24072672428739661</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T9*Main!$B$5)</f>
         <v>-0.2563027095333234</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U9*Main!$B$5)</f>
         <v>-0.2623615144567823</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V9*Main!$B$5)</f>
         <v>-0.27224463367276425</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W9*Main!$B$5)</f>
         <v>-0.27467915702502627</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X9*Main!$B$5)</f>
         <v>-0.28956574535414542</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y9*Main!$B$5)</f>
         <v>-0.29216275117367485</v>
       </c>
     </row>
@@ -18055,99 +18055,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B10*Main!$B$5)</f>
         <v>-0.3704312831434024</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C10*Main!$B$5)</f>
         <v>-0.39709485466182315</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D10*Main!$B$5)</f>
         <v>-0.41402707587754894</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E10*Main!$B$5)</f>
         <v>-0.4013414136527782</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F10*Main!$B$5)</f>
         <v>-0.40289822772468975</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G10*Main!$B$5)</f>
         <v>-0.35337610090088001</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H10*Main!$B$5)</f>
         <v>-0.21542971854674786</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I10*Main!$B$5)</f>
         <v>-2.4459904003610037E-2</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J10*Main!$B$5)</f>
         <v>1.3296797794266384E-2</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K10*Main!$B$5)</f>
         <v>-7.5366418306506673E-3</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L10*Main!$B$5)</f>
         <v>-1.0993458830069984E-2</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M10*Main!$B$5)</f>
         <v>-5.4347953975602816E-3</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N10*Main!$B$5)</f>
         <v>-4.6969610219013892E-2</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O10*Main!$B$5)</f>
         <v>-8.6889304962304223E-2</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P10*Main!$B$5)</f>
         <v>-0.16871865983757012</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q10*Main!$B$5)</f>
         <v>-0.17941943067927046</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R10*Main!$B$5)</f>
         <v>-0.14969525745678561</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S10*Main!$B$5)</f>
         <v>-4.6271053151158509E-2</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T10*Main!$B$5)</f>
         <v>-0.12236346200314922</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U10*Main!$B$5)</f>
         <v>-0.13831710550207063</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V10*Main!$B$5)</f>
         <v>-0.19038631210917295</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W10*Main!$B$5)</f>
         <v>-0.25154927506678287</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X10*Main!$B$5)</f>
         <v>-0.31547638193809524</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y10*Main!$B$5)</f>
         <v>-0.33218406903521036</v>
       </c>
     </row>
@@ -18156,99 +18156,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B11*Main!$B$5)</f>
         <v>-0.18195013924238707</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C11*Main!$B$5)</f>
         <v>-0.18538317920503283</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D11*Main!$B$5)</f>
         <v>-0.1875334087859328</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E11*Main!$B$5)</f>
         <v>-0.18700632204585324</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F11*Main!$B$5)</f>
         <v>-0.18648596531781395</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G11*Main!$B$5)</f>
         <v>-0.17608377341442102</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H11*Main!$B$5)</f>
         <v>-0.13068207098978329</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I11*Main!$B$5)</f>
         <v>-0.10665927907835281</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J11*Main!$B$5)</f>
         <v>-6.7375531650417195E-2</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K11*Main!$B$5)</f>
         <v>-4.0496856342953844E-2</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L11*Main!$B$5)</f>
         <v>-5.0792759410539824E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M11*Main!$B$5)</f>
         <v>-3.8428378503445382E-2</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N11*Main!$B$5)</f>
         <v>-4.6758834781687859E-2</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O11*Main!$B$5)</f>
         <v>-6.7628650886693939E-2</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P11*Main!$B$5)</f>
         <v>-8.6231596618170786E-2</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q11*Main!$B$5)</f>
         <v>-8.8940979495793979E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R11*Main!$B$5)</f>
         <v>-8.9663197988491289E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S11*Main!$B$5)</f>
         <v>-5.9910353786546633E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T11*Main!$B$5)</f>
         <v>-7.4795749480746979E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U11*Main!$B$5)</f>
         <v>-9.0907964573603825E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V11*Main!$B$5)</f>
         <v>-0.10797720354175958</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W11*Main!$B$5)</f>
         <v>-0.13466201562723901</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X11*Main!$B$5)</f>
         <v>-0.16831578736740732</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y11*Main!$B$5)</f>
         <v>-0.17477173736320517</v>
       </c>
     </row>
@@ -18257,99 +18257,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B12*Main!$B$5)</f>
         <v>-0.11505496633656204</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C12*Main!$B$5)</f>
         <v>-0.11616285123593337</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D12*Main!$B$5)</f>
         <v>-0.11595525149632022</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E12*Main!$B$5)</f>
         <v>-0.11934875846106552</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F12*Main!$B$5)</f>
         <v>-0.11436559578559073</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G12*Main!$B$5)</f>
         <v>-9.4159642028365298E-2</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H12*Main!$B$5)</f>
         <v>-6.9322150964094331E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I12*Main!$B$5)</f>
         <v>-6.4466745706932199E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J12*Main!$B$5)</f>
         <v>-4.4800425117686414E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K12*Main!$B$5)</f>
         <v>-2.926784885508146E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L12*Main!$B$5)</f>
         <v>-6.5391465339015215E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M12*Main!$B$5)</f>
         <v>-6.2293416974570089E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N12*Main!$B$5)</f>
         <v>-6.9499146027593758E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O12*Main!$B$5)</f>
         <v>-7.077244480341395E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P12*Main!$B$5)</f>
         <v>-7.874171071745012E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q12*Main!$B$5)</f>
         <v>-7.881636097331636E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R12*Main!$B$5)</f>
         <v>-6.8477057869770402E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S12*Main!$B$5)</f>
         <v>-4.5793503951008695E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T12*Main!$B$5)</f>
         <v>-6.1944199099495487E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U12*Main!$B$5)</f>
         <v>-7.0603953419686935E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V12*Main!$B$5)</f>
         <v>-7.5851924391375891E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W12*Main!$B$5)</f>
         <v>-8.0847322174471228E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X12*Main!$B$5)</f>
         <v>-8.3876226319564567E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y12*Main!$B$5)</f>
         <v>-9.0780612029631044E-2</v>
       </c>
     </row>
@@ -18358,99 +18358,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B13*Main!$B$5)</f>
         <v>-2.9807988892434682E-2</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C13*Main!$B$5)</f>
         <v>4.9522160826389987E-2</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D13*Main!$B$5)</f>
         <v>0.10580196514337661</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E13*Main!$B$5)</f>
         <v>8.9693601127025444E-2</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F13*Main!$B$5)</f>
         <v>7.1134101325023652E-2</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G13*Main!$B$5)</f>
         <v>-6.8849378562738608E-2</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H13*Main!$B$5)</f>
         <v>-2.3658054862040383E-3</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I13*Main!$B$5)</f>
         <v>8.5434871104508189E-2</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J13*Main!$B$5)</f>
         <v>0.18179764046922442</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K13*Main!$B$5)</f>
         <v>0.21017480023634635</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L13*Main!$B$5)</f>
         <v>0.10521733912310484</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M13*Main!$B$5)</f>
         <v>-2.6524764972105948E-4</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N13*Main!$B$5)</f>
         <v>0.33657010745536992</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O13*Main!$B$5)</f>
         <v>0.36658636677312983</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P13*Main!$B$5)</f>
         <v>0.36193694271102894</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q13*Main!$B$5)</f>
         <v>0.41145523653858013</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R13*Main!$B$5)</f>
         <v>0.22156810523761122</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S13*Main!$B$5)</f>
         <v>0.3122229782729371</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T13*Main!$B$5)</f>
         <v>0.32530101850635157</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U13*Main!$B$5)</f>
         <v>0.28998582837890868</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V13*Main!$B$5)</f>
         <v>0.3387267175562283</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W13*Main!$B$5)</f>
         <v>0.43481637521151839</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X13*Main!$B$5)</f>
         <v>0.40279143950506707</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y13*Main!$B$5)</f>
         <v>0.26868649643290365</v>
       </c>
     </row>
@@ -18459,99 +18459,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B14*Main!$B$5)</f>
         <v>2.9665239680843291E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C14*Main!$B$5)</f>
         <v>2.327961880743536E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D14*Main!$B$5)</f>
         <v>3.4242647019991898E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E14*Main!$B$5)</f>
         <v>4.2058691427898476E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F14*Main!$B$5)</f>
         <v>4.4805997108753999E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G14*Main!$B$5)</f>
         <v>5.408549236246462E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H14*Main!$B$5)</f>
         <v>0.1997769484421828</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I14*Main!$B$5)</f>
         <v>0.2451378364543417</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J14*Main!$B$5)</f>
         <v>0.26512301121968812</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K14*Main!$B$5)</f>
         <v>0.24550213356190825</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L14*Main!$B$5)</f>
         <v>0.2271612795975638</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M14*Main!$B$5)</f>
         <v>0.25513218735515208</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N14*Main!$B$5)</f>
         <v>0.30013838154595768</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O14*Main!$B$5)</f>
         <v>0.26617823967279119</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P14*Main!$B$5)</f>
         <v>0.25407314013661042</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q14*Main!$B$5)</f>
         <v>0.25103220350884703</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R14*Main!$B$5)</f>
         <v>0.22622436747105559</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S14*Main!$B$5)</f>
         <v>0.23385464032995101</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T14*Main!$B$5)</f>
         <v>0.20840382554450232</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U14*Main!$B$5)</f>
         <v>0.15421161016127244</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V14*Main!$B$5)</f>
         <v>0.16918732028058392</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W14*Main!$B$5)</f>
         <v>0.14784580027096461</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X14*Main!$B$5)</f>
         <v>6.5687750874845616E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y14*Main!$B$5)</f>
         <v>4.7402854419985624E-2</v>
       </c>
     </row>
@@ -18560,99 +18560,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B15*Main!$B$5)</f>
         <v>0.59241302719510402</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C15*Main!$B$5)</f>
         <v>0.60043489961344554</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D15*Main!$B$5)</f>
         <v>0.58972451564000861</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E15*Main!$B$5)</f>
         <v>0.6113541429756949</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F15*Main!$B$5)</f>
         <v>0.60044644439393269</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G15*Main!$B$5)</f>
         <v>0.57820685287124773</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H15*Main!$B$5)</f>
         <v>0.52267258538784733</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I15*Main!$B$5)</f>
         <v>0.39918289825336356</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J15*Main!$B$5)</f>
         <v>0.32300191293608738</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K15*Main!$B$5)</f>
         <v>0.28678045787713341</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L15*Main!$B$5)</f>
         <v>0.37311518036254537</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M15*Main!$B$5)</f>
         <v>0.36438442962906264</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N15*Main!$B$5)</f>
         <v>0.32397339485595922</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O15*Main!$B$5)</f>
         <v>0.27016696387148204</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P15*Main!$B$5)</f>
         <v>0.37139619597128237</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q15*Main!$B$5)</f>
         <v>0.4489846012962318</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R15*Main!$B$5)</f>
         <v>0.43482166238510006</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S15*Main!$B$5)</f>
         <v>0.45245152752508966</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T15*Main!$B$5)</f>
         <v>0.46766117752569647</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U15*Main!$B$5)</f>
         <v>0.50765890004191339</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V15*Main!$B$5)</f>
         <v>0.52059828538196651</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W15*Main!$B$5)</f>
         <v>0.54976594250316679</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X15*Main!$B$5)</f>
         <v>0.58619631265641647</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y15*Main!$B$5)</f>
         <v>0.57453058037318705</v>
       </c>
     </row>
@@ -18661,99 +18661,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B16*Main!$B$5)</f>
         <v>5.6893586081705916E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C16*Main!$B$5)</f>
         <v>4.06023028593573E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D16*Main!$B$5)</f>
         <v>3.4493868107969644E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E16*Main!$B$5)</f>
         <v>4.5117504486315331E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F16*Main!$B$5)</f>
         <v>3.9624453868235585E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G16*Main!$B$5)</f>
         <v>3.193927781176515E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H16*Main!$B$5)</f>
         <v>2.5897982425744915E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I16*Main!$B$5)</f>
         <v>9.0501389484411859E-2</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J16*Main!$B$5)</f>
         <v>9.6577075575313184E-2</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K16*Main!$B$5)</f>
         <v>8.4491327262246382E-2</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L16*Main!$B$5)</f>
         <v>9.843853034132459E-2</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M16*Main!$B$5)</f>
         <v>8.877870271564936E-2</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N16*Main!$B$5)</f>
         <v>8.9169842674444416E-2</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O16*Main!$B$5)</f>
         <v>7.8820975981106933E-2</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P16*Main!$B$5)</f>
         <v>4.7727263249087035E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q16*Main!$B$5)</f>
         <v>7.5473497701094544E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R16*Main!$B$5)</f>
         <v>9.1415047652536691E-2</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S16*Main!$B$5)</f>
         <v>8.4459731786197839E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T16*Main!$B$5)</f>
         <v>5.8444573481281549E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U16*Main!$B$5)</f>
         <v>6.0632772999224128E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V16*Main!$B$5)</f>
         <v>5.647413046269923E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W16*Main!$B$5)</f>
         <v>3.468104363277083E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X16*Main!$B$5)</f>
         <v>2.794473032712699E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y16*Main!$B$5)</f>
         <v>2.9253143269364765E-2</v>
       </c>
     </row>
@@ -37008,99 +37008,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>4.385234899328859E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>4.8926174496644298E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>4.5185234899328859E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>4.7029530201342276E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>4.5551677852348996E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>4.8672483221476506E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>4.8636241610738262E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>9.1093288590604032E-2</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>0.10925637583892618</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>0.10205637583892616</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>0.10167785234899329</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>0.10046979865771813</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>0.10905100671140937</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>0.10369127516778526</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>7.2684563758389248E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>9.5983892617449662E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>9.7204026845637573E-2</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>9.1103355704697991E-2</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>7.2191275167785229E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>6.4183892617449667E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>6.9414765100671141E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>6.6889932885906042E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>4.6642953020134222E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>4.6711409395973159E-2</v>
       </c>
     </row>
@@ -37109,99 +37109,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>4.5833333333333334E-3</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-2.8055555555555559E-2</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-3.0092592592592591E-2</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-4.4861111111111115E-2</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-5.3773148148148139E-2</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-4.1666666666666671E-2</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-5.3240740740740741E-2</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>0.13157407407407409</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>0.17129629629629625</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>0.22210648148148146</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>0.125</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>0.11456018518518517</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>7.9490740740740751E-2</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>0.10435185185185183</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>4.583333333333333E-2</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>3.9351851851851846E-2</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>8.4166666666666667E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>0.15812500000000002</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>0.15879629629629627</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>0.1283333333333333</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>9.7546296296296298E-2</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>4.6296296296296287E-2</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>9.1666666666666667E-3</v>
       </c>
     </row>
@@ -37210,99 +37210,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>-0.132525</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>-0.31387499999999996</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>-0.53680147058823524</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>-0.49577205882352943</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>-0.51108970588235292</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>-0.48691654411764707</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>-2.7352941176470587E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>0.56627426470588238</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>0.77422499999999994</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>0.75822352941176474</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>0.65216250000000009</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>0.78407205882352937</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>0.71760441176470591</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>0.6388621323529412</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>0.46383749999999996</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>0.28946250000000007</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>0.34864742647058822</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>0.31141323529411763</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>5.8706249999999988E-2</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>0.2479544117647059</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>0.34847647058823528</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>0.23250000000000001</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>-0.21755845588235295</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>-0.44547683823529416</v>
       </c>
     </row>
@@ -37311,99 +37311,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B5*Main!$B$5)</f>
         <v>-1.9918644067796611</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C5*Main!$B$5)</f>
         <v>-2.0311271186440676</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D5*Main!$B$5)</f>
         <v>-2.027105084745763</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E5*Main!$B$5)</f>
         <v>-2.0684745762711865</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F5*Main!$B$5)</f>
         <v>-2.0951923728813555</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G5*Main!$B$5)</f>
         <v>-2.1520754237288133</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H5*Main!$B$5)</f>
         <v>-1.9332576271186441</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I5*Main!$B$5)</f>
         <v>-1.3044796610169491</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J5*Main!$B$5)</f>
         <v>-1.0058915254237288</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K5*Main!$B$5)</f>
         <v>-1.0533898305084746</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L5*Main!$B$5)</f>
         <v>-1.3311016949152543</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M5*Main!$B$5)</f>
         <v>-1.4604771186440682</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N5*Main!$B$5)</f>
         <v>-1.3272711864406779</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O5*Main!$B$5)</f>
         <v>-1.4701491525423729</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P5*Main!$B$5)</f>
         <v>-1.3557127118644066</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q5*Main!$B$5)</f>
         <v>-1.6183898305084743</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R5*Main!$B$5)</f>
         <v>-1.8558813559322034</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S5*Main!$B$5)</f>
         <v>-1.6507576271186439</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T5*Main!$B$5)</f>
         <v>-1.1281805084745762</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U5*Main!$B$5)</f>
         <v>-1.0246610169491528</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V5*Main!$B$5)</f>
         <v>-1.0349076271186441</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W5*Main!$B$5)</f>
         <v>-1.363756779661017</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X5*Main!$B$5)</f>
         <v>-1.6758474576271185</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y5*Main!$B$5)</f>
         <v>-1.7254525423728813</v>
       </c>
     </row>
@@ -37412,99 +37412,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B6*Main!$B$5)</f>
         <v>-0.27713414634146344</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C6*Main!$B$5)</f>
         <v>-0.36695121951219517</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D6*Main!$B$5)</f>
         <v>-0.43225609756097572</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E6*Main!$B$5)</f>
         <v>-0.42073170731707321</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F6*Main!$B$5)</f>
         <v>-0.42914634146341463</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G6*Main!$B$5)</f>
         <v>-0.45576219512195115</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H6*Main!$B$5)</f>
         <v>-0.42292682926829273</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I6*Main!$B$5)</f>
         <v>-0.16298780487804879</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J6*Main!$B$5)</f>
         <v>5.3780487804878048E-2</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K6*Main!$B$5)</f>
         <v>0.18109756097560983</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L6*Main!$B$5)</f>
         <v>0.30786585365853658</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M6*Main!$B$5)</f>
         <v>0.31692073170731705</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N6*Main!$B$5)</f>
         <v>0.28048780487804881</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O6*Main!$B$5)</f>
         <v>0.22939024390243903</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P6*Main!$B$5)</f>
         <v>0.15396341463414634</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q6*Main!$B$5)</f>
         <v>9.9512195121951225E-2</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R6*Main!$B$5)</f>
         <v>8.0670731707317089E-2</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S6*Main!$B$5)</f>
         <v>7.698170731707317E-2</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T6*Main!$B$5)</f>
         <v>7.5457317073170729E-2</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U6*Main!$B$5)</f>
         <v>1.8292682926829267E-2</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V6*Main!$B$5)</f>
         <v>0.15835365853658537</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W6*Main!$B$5)</f>
         <v>7.774390243902439E-2</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X6*Main!$B$5)</f>
         <v>4.3536585365853669E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y6*Main!$B$5)</f>
         <v>-6.8414634146341483E-2</v>
       </c>
     </row>
@@ -37513,99 +37513,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B7*Main!$B$5)</f>
         <v>4.7519999999999993E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C7*Main!$B$5)</f>
         <v>5.27175E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D7*Main!$B$5)</f>
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E7*Main!$B$5)</f>
         <v>4.6672499999999999E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F7*Main!$B$5)</f>
         <v>4.9237500000000003E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G7*Main!$B$5)</f>
         <v>4.9061250000000001E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H7*Main!$B$5)</f>
         <v>4.9342499999999997E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I7*Main!$B$5)</f>
         <v>9.1417499999999985E-2</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J7*Main!$B$5)</f>
         <v>0.10377749999999999</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K7*Main!$B$5)</f>
         <v>0.10461375000000001</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L7*Main!$B$5)</f>
         <v>9.0521249999999984E-2</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M7*Main!$B$5)</f>
         <v>0.10492125000000002</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N7*Main!$B$5)</f>
         <v>0.10933125</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O7*Main!$B$5)</f>
         <v>0.10172250000000001</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P7*Main!$B$5)</f>
         <v>8.9437500000000003E-2</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q7*Main!$B$5)</f>
         <v>7.796249999999999E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R7*Main!$B$5)</f>
         <v>9.4079999999999983E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S7*Main!$B$5)</f>
         <v>9.2069999999999999E-2</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T7*Main!$B$5)</f>
         <v>7.4396249999999997E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U7*Main!$B$5)</f>
         <v>6.9041249999999985E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V7*Main!$B$5)</f>
         <v>8.0484374999999997E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W7*Main!$B$5)</f>
         <v>6.2184374999999993E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X7*Main!$B$5)</f>
         <v>4.876875E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y7*Main!$B$5)</f>
         <v>5.3971874999999989E-2</v>
       </c>
     </row>
@@ -37614,99 +37614,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B8*Main!$B$5)</f>
         <v>-0.48804782608695646</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C8*Main!$B$5)</f>
         <v>-0.48211739130434783</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D8*Main!$B$5)</f>
         <v>-0.53272826086956515</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E8*Main!$B$5)</f>
         <v>-0.52504565217391319</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F8*Main!$B$5)</f>
         <v>-0.49202391304347826</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G8*Main!$B$5)</f>
         <v>-0.54792500000000011</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H8*Main!$B$5)</f>
         <v>-0.46035000000000004</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I8*Main!$B$5)</f>
         <v>-0.21228260869565213</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J8*Main!$B$5)</f>
         <v>-3.743586956521739E-2</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K8*Main!$B$5)</f>
         <v>-3.0326086956521732E-2</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L8*Main!$B$5)</f>
         <v>6.2741304347826085E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M8*Main!$B$5)</f>
         <v>2.0621739130434785E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N8*Main!$B$5)</f>
         <v>6.7391304347826086E-3</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O8*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P8*Main!$B$5)</f>
         <v>-5.3373913043478251E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q8*Main!$B$5)</f>
         <v>-9.5291304347826081E-2</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R8*Main!$B$5)</f>
         <v>-0.13815217391304349</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S8*Main!$B$5)</f>
         <v>-0.18013695652173917</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T8*Main!$B$5)</f>
         <v>-0.15995326086956521</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U8*Main!$B$5)</f>
         <v>-0.1882239130434783</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V8*Main!$B$5)</f>
         <v>-0.13478260869565217</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W8*Main!$B$5)</f>
         <v>-0.25524456521739131</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X8*Main!$B$5)</f>
         <v>-0.31370652173913044</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y8*Main!$B$5)</f>
         <v>-0.35056956521739135</v>
       </c>
     </row>
@@ -37715,99 +37715,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B9*Main!$B$5)</f>
         <v>-0.29350999999999994</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C9*Main!$B$5)</f>
         <v>-0.30451499999999998</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D9*Main!$B$5)</f>
         <v>-0.30145499999999997</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E9*Main!$B$5)</f>
         <v>-0.30293999999999999</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F9*Main!$B$5)</f>
         <v>-0.30200000000000005</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G9*Main!$B$5)</f>
         <v>-0.29499999999999998</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H9*Main!$B$5)</f>
         <v>-0.25551000000000001</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I9*Main!$B$5)</f>
         <v>-0.20700000000000002</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J9*Main!$B$5)</f>
         <v>-0.20452499999999998</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K9*Main!$B$5)</f>
         <v>-0.19949999999999996</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L9*Main!$B$5)</f>
         <v>-0.19991999999999999</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M9*Main!$B$5)</f>
         <v>-0.19450000000000001</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N9*Main!$B$5)</f>
         <v>-0.19700999999999999</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O9*Main!$B$5)</f>
         <v>-0.20236999999999999</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P9*Main!$B$5)</f>
         <v>-0.22749999999999998</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q9*Main!$B$5)</f>
         <v>-0.23749999999999999</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R9*Main!$B$5)</f>
         <v>-0.24304500000000001</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S9*Main!$B$5)</f>
         <v>-0.24403499999999995</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T9*Main!$B$5)</f>
         <v>-0.24597999999999998</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U9*Main!$B$5)</f>
         <v>-0.26468999999999998</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V9*Main!$B$5)</f>
         <v>-0.28151999999999999</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W9*Main!$B$5)</f>
         <v>-0.28125999999999995</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X9*Main!$B$5)</f>
         <v>-0.29732999999999998</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y9*Main!$B$5)</f>
         <v>-0.29105999999999993</v>
       </c>
     </row>
@@ -37816,99 +37816,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B10*Main!$B$5)</f>
         <v>1.6877777777777773E-2</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C10*Main!$B$5)</f>
         <v>-0.14785277777777778</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D10*Main!$B$5)</f>
         <v>-0.18264166666666667</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E10*Main!$B$5)</f>
         <v>-0.24111111111111114</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F10*Main!$B$5)</f>
         <v>-0.22612777777777782</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G10*Main!$B$5)</f>
         <v>-0.25316666666666671</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H10*Main!$B$5)</f>
         <v>-0.48592499999999994</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I10*Main!$B$5)</f>
         <v>-0.155</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J10*Main!$B$5)</f>
         <v>-0.23628888888888888</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K10*Main!$B$5)</f>
         <v>-7.9050000000000023E-2</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L10*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M10*Main!$B$5)</f>
         <v>6.957777777777778E-2</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N10*Main!$B$5)</f>
         <v>0.22388888888888892</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O10*Main!$B$5)</f>
         <v>0.22612777777777782</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P10*Main!$B$5)</f>
         <v>0.18264166666666667</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q10*Main!$B$5)</f>
         <v>0.39662777777777775</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R10*Main!$B$5)</f>
         <v>0.33755555555555561</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S10*Main!$B$5)</f>
         <v>0.30440277777777786</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T10*Main!$B$5)</f>
         <v>0.25471666666666676</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U10*Main!$B$5)</f>
         <v>0.24472777777777782</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V10*Main!$B$5)</f>
         <v>0.3565861111111111</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W10*Main!$B$5)</f>
         <v>0.3122388888888889</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X10*Main!$B$5)</f>
         <v>-3.5133333333333336E-2</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y10*Main!$B$5)</f>
         <v>-5.1150000000000008E-2</v>
       </c>
     </row>
@@ -37917,99 +37917,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B11*Main!$B$5)</f>
         <v>-0.15129629629629629</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C11*Main!$B$5)</f>
         <v>-0.17226666666666665</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D11*Main!$B$5)</f>
         <v>-0.16895925925925925</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E11*Main!$B$5)</f>
         <v>-0.17064814814814816</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F11*Main!$B$5)</f>
         <v>-0.1724074074074074</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G11*Main!$B$5)</f>
         <v>-0.17944444444444443</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H11*Main!$B$5)</f>
         <v>-5.6859259259259276E-2</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I11*Main!$B$5)</f>
         <v>5.1018518518518526E-2</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J11*Main!$B$5)</f>
         <v>0.11146666666666667</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K11*Main!$B$5)</f>
         <v>0.11723703703703704</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L11*Main!$B$5)</f>
         <v>5.2777777777777771E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M11*Main!$B$5)</f>
         <v>0.12490740740740741</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N11*Main!$B$5)</f>
         <v>0.13370370370370371</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O11*Main!$B$5)</f>
         <v>0.13099444444444441</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P11*Main!$B$5)</f>
         <v>0.10203703703703705</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q11*Main!$B$5)</f>
         <v>4.3541666666666659E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R11*Main!$B$5)</f>
         <v>2.1533333333333335E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S11*Main!$B$5)</f>
         <v>2.1322222222222225E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T11*Main!$B$5)</f>
         <v>2.2412962962962964E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U11*Main!$B$5)</f>
         <v>4.3541666666666659E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V11*Main!$B$5)</f>
         <v>6.639444444444445E-2</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W11*Main!$B$5)</f>
         <v>8.8842592592592584E-3</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X11*Main!$B$5)</f>
         <v>-6.5514814814814817E-2</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y11*Main!$B$5)</f>
         <v>-0.11034074074074075</v>
       </c>
     </row>
@@ -38018,99 +38018,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B12*Main!$B$5)</f>
         <v>-0.10155483870967741</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C12*Main!$B$5)</f>
         <v>-0.11129032258064517</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D12*Main!$B$5)</f>
         <v>-0.11400967741935482</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E12*Main!$B$5)</f>
         <v>-0.11475483870967741</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F12*Main!$B$5)</f>
         <v>-0.11190967741935483</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G12*Main!$B$5)</f>
         <v>-0.11516129032258066</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H12*Main!$B$5)</f>
         <v>-8.8200000000000001E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I12*Main!$B$5)</f>
         <v>-7.5483870967741937E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J12*Main!$B$5)</f>
         <v>-6.4509677419354844E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K12*Main!$B$5)</f>
         <v>-4.7903225806451614E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L12*Main!$B$5)</f>
         <v>-4.8861290322580644E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M12*Main!$B$5)</f>
         <v>-5.1735483870967741E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N12*Main!$B$5)</f>
         <v>-6.1935483870967735E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O12*Main!$B$5)</f>
         <v>-6.259354838709677E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P12*Main!$B$5)</f>
         <v>-7.0180645161290314E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q12*Main!$B$5)</f>
         <v>-7.0180645161290314E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R12*Main!$B$5)</f>
         <v>-7.4032258064516132E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S12*Main!$B$5)</f>
         <v>-5.5712903225806451E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T12*Main!$B$5)</f>
         <v>-5.0825806451612908E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U12*Main!$B$5)</f>
         <v>-5.7096774193548389E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V12*Main!$B$5)</f>
         <v>-4.738064516129032E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W12*Main!$B$5)</f>
         <v>-5.8800000000000019E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X12*Main!$B$5)</f>
         <v>-6.8709677419354825E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y12*Main!$B$5)</f>
         <v>-7.9954838709677428E-2</v>
       </c>
     </row>
@@ -38119,99 +38119,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B13*Main!$B$5)</f>
         <v>-0.19022072156965822</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C13*Main!$B$5)</f>
         <v>-0.23266878335760327</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D13*Main!$B$5)</f>
         <v>-0.26529570103611361</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E13*Main!$B$5)</f>
         <v>-0.26357724194768001</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F13*Main!$B$5)</f>
         <v>-0.26252372153605141</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G13*Main!$B$5)</f>
         <v>-0.26819127548567839</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H13*Main!$B$5)</f>
         <v>-0.20170319384441712</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I13*Main!$B$5)</f>
         <v>6.1112238500437054E-3</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J13*Main!$B$5)</f>
         <v>8.4498500742184804E-2</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K13*Main!$B$5)</f>
         <v>0.12389096819560054</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L13*Main!$B$5)</f>
         <v>9.5646011421634786E-2</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M13*Main!$B$5)</f>
         <v>0.12392861842320729</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N13*Main!$B$5)</f>
         <v>0.12982879035193637</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O13*Main!$B$5)</f>
         <v>0.11405717543194611</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P13*Main!$B$5)</f>
         <v>5.2632966100972886E-2</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q13*Main!$B$5)</f>
         <v>3.3807913119816783E-2</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R13*Main!$B$5)</f>
         <v>2.5762088939972477E-2</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S13*Main!$B$5)</f>
         <v>3.1067684588645495E-2</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T13*Main!$B$5)</f>
         <v>2.7165410667100195E-2</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U13*Main!$B$5)</f>
         <v>2.8713319359947854E-2</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V13*Main!$B$5)</f>
         <v>6.5792565425370236E-2</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W13*Main!$B$5)</f>
         <v>9.9580633418613462E-4</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X13*Main!$B$5)</f>
         <v>-0.10459950100241105</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y13*Main!$B$5)</f>
         <v>-0.15529733119209349</v>
       </c>
     </row>
@@ -38220,99 +38220,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B14*Main!$B$5)</f>
         <v>6.9577777777777794E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C14*Main!$B$5)</f>
         <v>6.4607936507936503E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D14*Main!$B$5)</f>
         <v>4.7902380952380953E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E14*Main!$B$5)</f>
         <v>4.343690476190476E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F14*Main!$B$5)</f>
         <v>3.9381481481481483E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G14*Main!$B$5)</f>
         <v>5.1445238095238099E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H14*Main!$B$5)</f>
         <v>0.16566137566137568</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I14*Main!$B$5)</f>
         <v>0.21659814814814818</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J14*Main!$B$5)</f>
         <v>0.28618002645502644</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K14*Main!$B$5)</f>
         <v>0.27292711640211642</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L14*Main!$B$5)</f>
         <v>0.26366402116402121</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M14*Main!$B$5)</f>
         <v>0.25517592592592592</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N14*Main!$B$5)</f>
         <v>0.28452341269841269</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O14*Main!$B$5)</f>
         <v>0.25833333333333336</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P14*Main!$B$5)</f>
         <v>0.23267222222222222</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q14*Main!$B$5)</f>
         <v>0.21619629629629628</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R14*Main!$B$5)</f>
         <v>0.22032962962962968</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S14*Main!$B$5)</f>
         <v>0.22322870370370371</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T14*Main!$B$5)</f>
         <v>0.18411375661375659</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U14*Main!$B$5)</f>
         <v>0.16980291005291007</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V14*Main!$B$5)</f>
         <v>0.17480555555555555</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W14*Main!$B$5)</f>
         <v>0.12631679894179895</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X14*Main!$B$5)</f>
         <v>5.5496560846560856E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y14*Main!$B$5)</f>
         <v>5.9047619047619043E-2</v>
       </c>
     </row>
@@ -38321,99 +38321,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B15*Main!$B$5)</f>
         <v>0.60010833333333324</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C15*Main!$B$5)</f>
         <v>0.56962499999999994</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D15*Main!$B$5)</f>
         <v>0.61922500000000003</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E15*Main!$B$5)</f>
         <v>0.62619999999999998</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F15*Main!$B$5)</f>
         <v>0.62</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G15*Main!$B$5)</f>
         <v>0.60604999999999987</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H15*Main!$B$5)</f>
         <v>0.52428750000000013</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I15*Main!$B$5)</f>
         <v>0.50878750000000006</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J15*Main!$B$5)</f>
         <v>0.38750000000000007</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K15*Main!$B$5)</f>
         <v>0.2739625</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L15*Main!$B$5)</f>
         <v>0.30005416666666668</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M15*Main!$B$5)</f>
         <v>0.35805000000000009</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N15*Main!$B$5)</f>
         <v>0.26091666666666669</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O15*Main!$B$5)</f>
         <v>0.35805000000000009</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P15*Main!$B$5)</f>
         <v>0.42160000000000009</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q15*Main!$B$5)</f>
         <v>0.40920000000000006</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R15*Main!$B$5)</f>
         <v>0.40920000000000006</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S15*Main!$B$5)</f>
         <v>0.3964125</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T15*Main!$B$5)</f>
         <v>0.37458333333333338</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U15*Main!$B$5)</f>
         <v>0.46035000000000004</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V15*Main!$B$5)</f>
         <v>0.4908333333333334</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W15*Main!$B$5)</f>
         <v>0.56652500000000006</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X15*Main!$B$5)</f>
         <v>0.52183333333333337</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y15*Main!$B$5)</f>
         <v>0.51899166666666674</v>
       </c>
     </row>
@@ -38422,99 +38422,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B16*Main!$B$5)</f>
         <v>4.4738255033557044E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C16*Main!$B$5)</f>
         <v>4.9415436241610745E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D16*Main!$B$5)</f>
         <v>4.7029530201342276E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E16*Main!$B$5)</f>
         <v>4.6107382550335571E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F16*Main!$B$5)</f>
         <v>4.4198657718120808E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G16*Main!$B$5)</f>
         <v>4.8672483221476506E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H16*Main!$B$5)</f>
         <v>5.0110067114093958E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I16*Main!$B$5)</f>
         <v>9.2933557046979878E-2</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J16*Main!$B$5)</f>
         <v>0.10711409395973155</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K16*Main!$B$5)</f>
         <v>0.10102550335570468</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L16*Main!$B$5)</f>
         <v>0.10167785234899329</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M16*Main!$B$5)</f>
         <v>0.10147449664429531</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N16*Main!$B$5)</f>
         <v>0.10584362416107382</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O16*Main!$B$5)</f>
         <v>0.1026543624161074</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P16*Main!$B$5)</f>
         <v>7.4138255033557046E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q16*Main!$B$5)</f>
         <v>9.5983892617449662E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R16*Main!$B$5)</f>
         <v>9.8166442953020128E-2</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S16*Main!$B$5)</f>
         <v>9.020134228187919E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T16*Main!$B$5)</f>
         <v>7.2906040268456374E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U16*Main!$B$5)</f>
         <v>6.3535570469798672E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V16*Main!$B$5)</f>
         <v>6.8734228187919466E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W16*Main!$B$5)</f>
         <v>6.8937583892617435E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X16*Main!$B$5)</f>
         <v>4.711409395973154E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y16*Main!$B$5)</f>
         <v>4.5777181208053692E-2</v>
       </c>
     </row>
@@ -39057,99 +39057,99 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>4.429530201342282E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>4.9415436241610745E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>4.5646308724832219E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>4.7029530201342276E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>4.5551677852348996E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>4.8195302013422807E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>4.8144966442953019E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>9.2933557046979878E-2</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>0.10497181208053691</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>0.10102550335570468</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>0.10067114093959731</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>9.8460402684563769E-2</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>0.10798187919463087</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>0.10369127516778526</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>7.2684563758389248E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>9.6934228187919455E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>9.5279194630872477E-2</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>8.8397315436241616E-2</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>7.1476510067114085E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>6.5480536912751686E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>6.8734228187919466E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>6.7572483221476506E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>4.711409395973154E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>4.6711409395973159E-2</v>
       </c>
     </row>
@@ -39158,99 +39158,99 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>4.6296296296296294E-3</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-2.8055555555555559E-2</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-3.0694444444444441E-2</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-4.3541666666666673E-2</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-5.4305555555555544E-2</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-4.1666666666666671E-2</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-5.2175925925925924E-2</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>0.13291666666666668</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>0.16958333333333331</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>0.21770833333333331</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>0.1225</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>0.11569444444444443</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>7.8703703703703706E-2</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>0.10648148148148147</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>4.5370370370370373E-2</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>3.9351851851851846E-2</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>4.5370370370370373E-2</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>0.16131944444444446</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>0.15879629629629627</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>0.13222222222222219</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>0.1005324074074074</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>4.7222222222222214E-2</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>9.3518518518518508E-3</v>
       </c>
     </row>
@@ -39259,99 +39259,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>-0.132525</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>-0.30464338235294114</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>-0.54216948529411757</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>-0.4858566176470589</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>-0.50602941176470584</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>-0.49173750000000005</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>-2.7626470588235297E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>0.57205257352941175</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>0.7590441176470587</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>0.7735411764705884</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>0.63298125000000005</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>0.80807426470588239</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>0.73210147058823538</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>0.64518749999999991</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>0.44564779411764704</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>0.28094889705882359</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>0.35921249999999999</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>0.30826764705882348</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>5.7543749999999998E-2</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>0.25554485294117646</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>0.36270000000000002</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>0.23482500000000001</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>-0.21755845588235295</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>-0.43665551470588237</v>
       </c>
     </row>
@@ -39360,99 +39360,99 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B5*Main!$B$5)</f>
         <v>-1.9520271186440676</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C5*Main!$B$5)</f>
         <v>-2.0311271186440676</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D5*Main!$B$5)</f>
         <v>-2.1098440677966104</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E5*Main!$B$5)</f>
         <v>-2.027105084745763</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F5*Main!$B$5)</f>
         <v>-2.1375194915254236</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G5*Main!$B$5)</f>
         <v>-2.2172898305084749</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H5*Main!$B$5)</f>
         <v>-1.9332576271186441</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I5*Main!$B$5)</f>
         <v>-1.3444127118644069</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J5*Main!$B$5)</f>
         <v>-1.0158508474576271</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K5*Main!$B$5)</f>
         <v>-1.0428559322033897</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L5*Main!$B$5)</f>
         <v>-1.3177906779661017</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M5*Main!$B$5)</f>
         <v>-1.4460169491525428</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N5*Main!$B$5)</f>
         <v>-1.3406779661016948</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O5*Main!$B$5)</f>
         <v>-1.4264813559322034</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P5*Main!$B$5)</f>
         <v>-1.369406779661017</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q5*Main!$B$5)</f>
         <v>-1.6183898305084743</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R5*Main!$B$5)</f>
         <v>-1.8194915254237287</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S5*Main!$B$5)</f>
         <v>-1.6022059322033897</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T5*Main!$B$5)</f>
         <v>-1.1623677966101691</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U5*Main!$B$5)</f>
         <v>-1.0041677966101694</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V5*Main!$B$5)</f>
         <v>-1.0451542372881357</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W5*Main!$B$5)</f>
         <v>-1.363756779661017</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X5*Main!$B$5)</f>
         <v>-1.6758474576271185</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y5*Main!$B$5)</f>
         <v>-1.7080237288135591</v>
       </c>
     </row>
@@ -39461,99 +39461,99 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B6*Main!$B$5)</f>
         <v>-0.27713414634146344</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C6*Main!$B$5)</f>
         <v>-0.36335365853658547</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D6*Main!$B$5)</f>
         <v>-0.42378048780487809</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E6*Main!$B$5)</f>
         <v>-0.41652439024390248</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F6*Main!$B$5)</f>
         <v>-0.42493902439024389</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G6*Main!$B$5)</f>
         <v>-0.45115853658536581</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H6*Main!$B$5)</f>
         <v>-0.41878048780487809</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I6*Main!$B$5)</f>
         <v>-0.16298780487804879</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J6*Main!$B$5)</f>
         <v>5.5426829268292684E-2</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K6*Main!$B$5)</f>
         <v>0.18475609756097566</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L6*Main!$B$5)</f>
         <v>0.30182926829268292</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M6*Main!$B$5)</f>
         <v>0.32332317073170735</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N6*Main!$B$5)</f>
         <v>0.27768292682926832</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O6*Main!$B$5)</f>
         <v>0.23402439024390242</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P6*Main!$B$5)</f>
         <v>0.15091463414634146</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q6*Main!$B$5)</f>
         <v>9.6585365853658539E-2</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R6*Main!$B$5)</f>
         <v>8.2317073170731711E-2</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S6*Main!$B$5)</f>
         <v>7.4695121951219509E-2</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T6*Main!$B$5)</f>
         <v>7.698170731707317E-2</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U6*Main!$B$5)</f>
         <v>1.8109756097560974E-2</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V6*Main!$B$5)</f>
         <v>0.15996951219512195</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W6*Main!$B$5)</f>
         <v>7.698170731707317E-2</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X6*Main!$B$5)</f>
         <v>4.2256097560975613E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y6*Main!$B$5)</f>
         <v>-6.6402439024390261E-2</v>
       </c>
     </row>
@@ -39562,99 +39562,99 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B7*Main!$B$5)</f>
         <v>4.7039999999999992E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C7*Main!$B$5)</f>
         <v>5.3249999999999999E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D7*Main!$B$5)</f>
         <v>4.1310000000000006E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E7*Main!$B$5)</f>
         <v>4.6672499999999999E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F7*Main!$B$5)</f>
         <v>4.8262499999999993E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G7*Main!$B$5)</f>
         <v>4.9061250000000001E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H7*Main!$B$5)</f>
         <v>4.8858750000000006E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I7*Main!$B$5)</f>
         <v>8.9624999999999996E-2</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J7*Main!$B$5)</f>
         <v>0.10069500000000001</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K7*Main!$B$5)</f>
         <v>0.1025625</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L7*Main!$B$5)</f>
         <v>9.1417499999999971E-2</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M7*Main!$B$5)</f>
         <v>0.10492125000000002</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N7*Main!$B$5)</f>
         <v>0.11267812499999999</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O7*Main!$B$5)</f>
         <v>0.10172250000000001</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P7*Main!$B$5)</f>
         <v>8.9437500000000003E-2</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q7*Main!$B$5)</f>
         <v>7.7174999999999994E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R7*Main!$B$5)</f>
         <v>9.7919999999999993E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S7*Main!$B$5)</f>
         <v>9.3929999999999986E-2</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T7*Main!$B$5)</f>
         <v>7.4396249999999997E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U7*Main!$B$5)</f>
         <v>6.701062499999999E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V7*Main!$B$5)</f>
         <v>8.1281249999999999E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W7*Main!$B$5)</f>
         <v>6.2812499999999993E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X7*Main!$B$5)</f>
         <v>4.7812500000000001E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y7*Main!$B$5)</f>
         <v>5.3437499999999992E-2</v>
       </c>
     </row>
@@ -39663,99 +39663,99 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B8*Main!$B$5)</f>
         <v>-0.47847826086956513</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C8*Main!$B$5)</f>
         <v>-0.48211739130434783</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D8*Main!$B$5)</f>
         <v>-0.51183695652173899</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E8*Main!$B$5)</f>
         <v>-0.54647608695652183</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F8*Main!$B$5)</f>
         <v>-0.49704456521739127</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G8*Main!$B$5)</f>
         <v>-0.55335000000000012</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H8*Main!$B$5)</f>
         <v>-0.45569999999999999</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I8*Main!$B$5)</f>
         <v>-0.21015978260869567</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J8*Main!$B$5)</f>
         <v>-3.6323913043478255E-2</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K8*Main!$B$5)</f>
         <v>-2.9719565217391299E-2</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L8*Main!$B$5)</f>
         <v>6.338152173913042E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M8*Main!$B$5)</f>
         <v>2.0015217391304345E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N8*Main!$B$5)</f>
         <v>6.7391304347826086E-3</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O8*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P8*Main!$B$5)</f>
         <v>-5.4991304347826092E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q8*Main!$B$5)</f>
         <v>-9.6234782608695654E-2</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R8*Main!$B$5)</f>
         <v>-0.13953369565217394</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S8*Main!$B$5)</f>
         <v>-0.18195652173913046</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T8*Main!$B$5)</f>
         <v>-0.1567858695652174</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U8*Main!$B$5)</f>
         <v>-0.19398586956521741</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V8*Main!$B$5)</f>
         <v>-0.13478260869565217</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W8*Main!$B$5)</f>
         <v>-0.25777173913043477</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X8*Main!$B$5)</f>
         <v>-0.32010869565217387</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y8*Main!$B$5)</f>
         <v>-0.35056956521739135</v>
       </c>
     </row>
@@ -39764,99 +39764,99 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B9*Main!$B$5)</f>
         <v>-0.29949999999999993</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C9*Main!$B$5)</f>
         <v>-0.30752999999999997</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D9*Main!$B$5)</f>
         <v>-0.30449999999999999</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E9*Main!$B$5)</f>
         <v>-0.30905999999999995</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F9*Main!$B$5)</f>
         <v>-0.29898000000000008</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G9*Main!$B$5)</f>
         <v>-0.29499999999999998</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H9*Main!$B$5)</f>
         <v>-0.24548999999999999</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I9*Main!$B$5)</f>
         <v>-0.20907000000000001</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J9*Main!$B$5)</f>
         <v>-0.20654999999999998</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K9*Main!$B$5)</f>
         <v>-0.19550999999999996</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L9*Main!$B$5)</f>
         <v>-0.19991999999999999</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M9*Main!$B$5)</f>
         <v>-0.19061</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N9*Main!$B$5)</f>
         <v>-0.20298000000000002</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O9*Main!$B$5)</f>
         <v>-0.20443500000000003</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P9*Main!$B$5)</f>
         <v>-0.23204999999999995</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q9*Main!$B$5)</f>
         <v>-0.239875</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R9*Main!$B$5)</f>
         <v>-0.24550000000000002</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S9*Main!$B$5)</f>
         <v>-0.24649999999999997</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T9*Main!$B$5)</f>
         <v>-0.24849000000000002</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U9*Main!$B$5)</f>
         <v>-0.25690499999999999</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V9*Main!$B$5)</f>
         <v>-0.28151999999999999</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W9*Main!$B$5)</f>
         <v>-0.28986999999999996</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X9*Main!$B$5)</f>
         <v>-0.29732999999999998</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y9*Main!$B$5)</f>
         <v>-0.29996999999999996</v>
       </c>
     </row>
@@ -39865,99 +39865,99 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B10*Main!$B$5)</f>
         <v>1.7566666666666664E-2</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C10*Main!$B$5)</f>
         <v>-0.14638888888888887</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D10*Main!$B$5)</f>
         <v>-0.18445000000000003</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E10*Main!$B$5)</f>
         <v>-0.23870000000000005</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F10*Main!$B$5)</f>
         <v>-0.22165000000000007</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G10*Main!$B$5)</f>
         <v>-0.25833333333333336</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H10*Main!$B$5)</f>
         <v>-0.49083333333333323</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I10*Main!$B$5)</f>
         <v>-0.15345</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J10*Main!$B$5)</f>
         <v>-0.24111111111111114</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K10*Main!$B$5)</f>
         <v>-7.5950000000000017E-2</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L10*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M10*Main!$B$5)</f>
         <v>6.7511111111111119E-2</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N10*Main!$B$5)</f>
         <v>0.21941111111111114</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O10*Main!$B$5)</f>
         <v>0.22165000000000007</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P10*Main!$B$5)</f>
         <v>0.18445000000000003</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q10*Main!$B$5)</f>
         <v>0.40876944444444446</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R10*Main!$B$5)</f>
         <v>0.34100000000000003</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S10*Main!$B$5)</f>
         <v>0.29536111111111113</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T10*Main!$B$5)</f>
         <v>0.24722500000000003</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U10*Main!$B$5)</f>
         <v>0.24972222222222226</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V10*Main!$B$5)</f>
         <v>0.36011666666666664</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W10*Main!$B$5)</f>
         <v>0.31542500000000001</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X10*Main!$B$5)</f>
         <v>-3.3755555555555559E-2</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y10*Main!$B$5)</f>
         <v>-5.2183333333333345E-2</v>
       </c>
     </row>
@@ -39966,99 +39966,99 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B11*Main!$B$5)</f>
         <v>-0.15432222222222222</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C11*Main!$B$5)</f>
         <v>-0.16888888888888889</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D11*Main!$B$5)</f>
         <v>-0.17413148148148147</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E11*Main!$B$5)</f>
         <v>-0.17406111111111108</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F11*Main!$B$5)</f>
         <v>-0.1759259259259259</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G11*Main!$B$5)</f>
         <v>-0.17944444444444443</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H11*Main!$B$5)</f>
         <v>-5.6859259259259276E-2</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I11*Main!$B$5)</f>
         <v>5.1018518518518526E-2</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J11*Main!$B$5)</f>
         <v>0.11259259259259259</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K11*Main!$B$5)</f>
         <v>0.12082592592592595</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L11*Main!$B$5)</f>
         <v>5.3833333333333323E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M11*Main!$B$5)</f>
         <v>0.12240925925925925</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N11*Main!$B$5)</f>
         <v>0.13236666666666669</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O11*Main!$B$5)</f>
         <v>0.12842592592592589</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P11*Main!$B$5)</f>
         <v>0.10101666666666669</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q11*Main!$B$5)</f>
         <v>4.3981481481481476E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R11*Main!$B$5)</f>
         <v>2.1322222222222225E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S11*Main!$B$5)</f>
         <v>2.0900000000000002E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T11*Main!$B$5)</f>
         <v>2.2412962962962964E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U11*Main!$B$5)</f>
         <v>4.310185185185185E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V11*Main!$B$5)</f>
         <v>6.3790740740740731E-2</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W11*Main!$B$5)</f>
         <v>8.8842592592592584E-3</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X11*Main!$B$5)</f>
         <v>-6.8188888888888896E-2</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y11*Main!$B$5)</f>
         <v>-0.11371851851851855</v>
       </c>
     </row>
@@ -40067,99 +40067,99 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B12*Main!$B$5)</f>
         <v>-0.10052903225806452</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C12*Main!$B$5)</f>
         <v>-0.11129032258064517</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D12*Main!$B$5)</f>
         <v>-0.11400967741935482</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E12*Main!$B$5)</f>
         <v>-0.11709677419354839</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F12*Main!$B$5)</f>
         <v>-0.11419354838709676</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G12*Main!$B$5)</f>
         <v>-0.11746451612903226</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H12*Main!$B$5)</f>
         <v>-9.1799999999999993E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I12*Main!$B$5)</f>
         <v>-7.6238709677419345E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J12*Main!$B$5)</f>
         <v>-6.2593548387096784E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K12*Main!$B$5)</f>
         <v>-4.7419354838709675E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L12*Main!$B$5)</f>
         <v>-4.8367741935483877E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M12*Main!$B$5)</f>
         <v>-5.1735483870967741E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N12*Main!$B$5)</f>
         <v>-6.3174193548387089E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O12*Main!$B$5)</f>
         <v>-6.3870967741935472E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P12*Main!$B$5)</f>
         <v>-7.3045161290322583E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q12*Main!$B$5)</f>
         <v>-7.1612903225806449E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R12*Main!$B$5)</f>
         <v>-7.1129032258064523E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S12*Main!$B$5)</f>
         <v>-5.4609677419354845E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T12*Main!$B$5)</f>
         <v>-4.9819354838709674E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U12*Main!$B$5)</f>
         <v>-5.6525806451612905E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V12*Main!$B$5)</f>
         <v>-4.6916129032258058E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W12*Main!$B$5)</f>
         <v>-6.0000000000000012E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X12*Main!$B$5)</f>
         <v>-7.0083870967741921E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y12*Main!$B$5)</f>
         <v>-7.917096774193548E-2</v>
       </c>
     </row>
@@ -40168,99 +40168,99 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B13*Main!$B$5)</f>
         <v>-0.18833734808877053</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C13*Main!$B$5)</f>
         <v>-0.23038771685409734</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D13*Main!$B$5)</f>
         <v>-0.25489194805430521</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E13*Main!$B$5)</f>
         <v>-0.26357724194768001</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F13*Main!$B$5)</f>
         <v>-0.2598984843206909</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G13*Main!$B$5)</f>
         <v>-0.27355510099539193</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H13*Main!$B$5)</f>
         <v>-0.20581958555552768</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I13*Main!$B$5)</f>
         <v>6.05071668321159E-3</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J13*Main!$B$5)</f>
         <v>8.7059061370735852E-2</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K13*Main!$B$5)</f>
         <v>0.12512987787755656</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L13*Main!$B$5)</f>
         <v>9.6612132749126042E-2</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M13*Main!$B$5)</f>
         <v>0.12519319616221961</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N13*Main!$B$5)</f>
         <v>0.12728312779601605</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O13*Main!$B$5)</f>
         <v>0.11518645439661884</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P13*Main!$B$5)</f>
         <v>5.1084937686238382E-2</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q13*Main!$B$5)</f>
         <v>3.5187827941033797E-2</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R13*Main!$B$5)</f>
         <v>2.6282535181184043E-2</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S13*Main!$B$5)</f>
         <v>3.1067684588645495E-2</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T13*Main!$B$5)</f>
         <v>2.7165410667100195E-2</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U13*Main!$B$5)</f>
         <v>2.7868809967008211E-2</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V13*Main!$B$5)</f>
         <v>6.4502515122911996E-2</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W13*Main!$B$5)</f>
         <v>9.9580633418613462E-4</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X13*Main!$B$5)</f>
         <v>-0.10886886839026456</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y13*Main!$B$5)</f>
         <v>-0.15377480833726906</v>
       </c>
     </row>
@@ -40269,99 +40269,99 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B14*Main!$B$5)</f>
         <v>7.0266666666666686E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C14*Main!$B$5)</f>
         <v>6.396825396825398E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D14*Main!$B$5)</f>
         <v>4.9353968253968261E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E14*Main!$B$5)</f>
         <v>4.4314417989417994E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F14*Main!$B$5)</f>
         <v>4.0988888888888887E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G14*Main!$B$5)</f>
         <v>4.9427777777777779E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H14*Main!$B$5)</f>
         <v>0.16234814814814816</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I14*Main!$B$5)</f>
         <v>0.22543888888888891</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J14*Main!$B$5)</f>
         <v>0.28901349206349208</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K14*Main!$B$5)</f>
         <v>0.27292711640211642</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L14*Main!$B$5)</f>
         <v>0.26630066137566138</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M14*Main!$B$5)</f>
         <v>0.26038359788359788</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N14*Main!$B$5)</f>
         <v>0.28170634920634924</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O14*Main!$B$5)</f>
         <v>0.25316666666666671</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P14*Main!$B$5)</f>
         <v>0.24216904761904762</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q14*Main!$B$5)</f>
         <v>0.2250206349206349</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R14*Main!$B$5)</f>
         <v>0.21378518518518524</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S14*Main!$B$5)</f>
         <v>0.22543888888888891</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T14*Main!$B$5)</f>
         <v>0.18411375661375659</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U14*Main!$B$5)</f>
         <v>0.16980291005291007</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V14*Main!$B$5)</f>
         <v>0.17480555555555555</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W14*Main!$B$5)</f>
         <v>0.12506613756613758</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X14*Main!$B$5)</f>
         <v>5.5496560846560856E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y14*Main!$B$5)</f>
         <v>5.7866666666666663E-2</v>
       </c>
     </row>
@@ -40370,99 +40370,99 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B15*Main!$B$5)</f>
         <v>0.60010833333333324</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C15*Main!$B$5)</f>
         <v>0.57543749999999994</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D15*Main!$B$5)</f>
         <v>0.61922500000000003</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E15*Main!$B$5)</f>
         <v>0.62</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F15*Main!$B$5)</f>
         <v>0.62</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G15*Main!$B$5)</f>
         <v>0.59416666666666662</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H15*Main!$B$5)</f>
         <v>0.52428750000000013</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I15*Main!$B$5)</f>
         <v>0.49871250000000011</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J15*Main!$B$5)</f>
         <v>0.37975000000000009</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K15*Main!$B$5)</f>
         <v>0.276675</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L15*Main!$B$5)</f>
         <v>0.30302499999999999</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M15*Main!$B$5)</f>
         <v>0.36890000000000006</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N15*Main!$B$5)</f>
         <v>0.25574999999999998</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O15*Main!$B$5)</f>
         <v>0.36890000000000006</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P15*Main!$B$5)</f>
         <v>0.41746666666666676</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q15*Main!$B$5)</f>
         <v>0.40506666666666674</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R15*Main!$B$5)</f>
         <v>0.42160000000000009</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S15*Main!$B$5)</f>
         <v>0.40842499999999998</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T15*Main!$B$5)</f>
         <v>0.3670916666666667</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U15*Main!$B$5)</f>
         <v>0.45569999999999999</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V15*Main!$B$5)</f>
         <v>0.4810166666666667</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W15*Main!$B$5)</f>
         <v>0.56652500000000006</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X15*Main!$B$5)</f>
         <v>0.52183333333333337</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y15*Main!$B$5)</f>
         <v>0.52428750000000013</v>
       </c>
     </row>
@@ -40471,99 +40471,99 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B16*Main!$B$5)</f>
         <v>4.3409395973154359E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C16*Main!$B$5)</f>
         <v>4.8926174496644298E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D16*Main!$B$5)</f>
         <v>4.7029530201342276E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E16*Main!$B$5)</f>
         <v>4.5185234899328859E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F16*Main!$B$5)</f>
         <v>4.6002684563758396E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G16*Main!$B$5)</f>
         <v>4.7240939597315429E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H16*Main!$B$5)</f>
         <v>4.9618791946308728E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I16*Main!$B$5)</f>
         <v>9.0173154362416116E-2</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J16*Main!$B$5)</f>
         <v>0.10497181208053691</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K16*Main!$B$5)</f>
         <v>0.10411812080536911</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L16*Main!$B$5)</f>
         <v>0.10067114093959731</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M16*Main!$B$5)</f>
         <v>9.8460402684563769E-2</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N16*Main!$B$5)</f>
         <v>0.10691275167785233</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O16*Main!$B$5)</f>
         <v>0.10472818791946309</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P16*Main!$B$5)</f>
         <v>7.1230872483221463E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q16*Main!$B$5)</f>
         <v>9.6934228187919455E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R16*Main!$B$5)</f>
         <v>9.6241610738255032E-2</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S16*Main!$B$5)</f>
         <v>8.9299328859060403E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T16*Main!$B$5)</f>
         <v>7.2906040268456374E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U16*Main!$B$5)</f>
         <v>6.4832214765100676E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V16*Main!$B$5)</f>
         <v>6.6692617449664426E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W16*Main!$B$5)</f>
         <v>6.6889932885906042E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X16*Main!$B$5)</f>
         <v>4.805637583892617E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y16*Main!$B$5)</f>
         <v>4.7178523489932886E-2</v>
       </c>
     </row>

--- a/data/CS1/case18_1/case18_1_2020.xlsx
+++ b/data/CS1/case18_1/case18_1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C0B0D7-90D7-4D1A-8C23-4A3038E7F8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F70AD56-D385-45C0-9EF2-7C95D4926BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15020,7 +15020,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15036,16 +15036,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
